--- a/data/df_Level2.xlsx
+++ b/data/df_Level2.xlsx
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.4969039949999533</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="FA2" t="n">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.222222222222222</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.222222222222222</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
@@ -2106,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.872477727372524</v>
+        <v>2.034425935955617</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.3142696805273544</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="GD2" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.872477727372524</v>
+        <v>2.034425935955617</v>
       </c>
       <c r="GG2" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="EM3" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.4969039949999533</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="EW3" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="FA3" t="n">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>2.222222222222222</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>2.222222222222222</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.872477727372524</v>
+        <v>2.034425935955617</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.3142696805273544</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="GD3" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>1.872477727372524</v>
+        <v>2.034425935955617</v>
       </c>
       <c r="GG3" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="EB4" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="EC4" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.924211375534118</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="FK4" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2763853991962833</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.74535599249993</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.4930066485916347</v>
+        <v>0</v>
       </c>
       <c r="GM4" t="n">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="EB5" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>3.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="EM5" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.8357108940373451</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
@@ -4059,20 +4059,20 @@
         <v>0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
         <v>1</v>
       </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>42</v>
-      </c>
       <c r="FE5" t="n">
         <v>0</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>1.952380952380952</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
         <v>0</v>
       </c>
       <c r="FR5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FS5" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.290115922299435</v>
+        <v>0</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.21295885499998</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.7559289460184544</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="GL5" t="n">
-        <v>0.42591770999996</v>
+        <v>0</v>
       </c>
       <c r="GM5" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="EB6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.4985185152621431</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
         <v>0</v>
@@ -4738,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="FA6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="FB6" t="n">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="FE6" t="n">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK6" t="n">
         <v>0</v>
@@ -4780,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.846153846153846</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="FR6" t="n">
-        <v>2.923076923076923</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
         <v>0</v>
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>2.475919529143244</v>
+        <v>2.44114392723358</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.4985185152621432</v>
+        <v>0.3499271061118826</v>
       </c>
       <c r="GD6" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>2.36843143359087</v>
+        <v>1.829464067837957</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="GL6" t="n">
-        <v>0.2664693550105965</v>
+        <v>0</v>
       </c>
       <c r="GM6" t="n">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="EB7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.8235294117647058</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.7848037684780196</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>0</v>
@@ -5417,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="FA7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="FB7" t="n">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="FE7" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
         <v>0</v>
@@ -5459,10 +5459,10 @@
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>2.647058823529412</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="FR7" t="n">
-        <v>2.470588235294118</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="FS7" t="n">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.2941176470588235</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>2.194677424256192</v>
+        <v>2.44114392723358</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.4991341984846218</v>
+        <v>0.3499271061118826</v>
       </c>
       <c r="GD7" t="n">
         <v>0</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>2.225986815108765</v>
+        <v>1.829464067837957</v>
       </c>
       <c r="GG7" t="n">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="GL7" t="n">
-        <v>0.4556450995538138</v>
+        <v>0</v>
       </c>
       <c r="GM7" t="n">
         <v>0</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="EB8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="EC8" t="n">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>1.125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.5994789404140899</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="EW8" t="n">
         <v>0</v>
@@ -6096,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="FA8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FB8" t="n">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="FD8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
@@ -6138,10 +6138,10 @@
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>2.625</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="FR8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="FS8" t="n">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>1.79843682124227</v>
+        <v>1.343709624716425</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.5</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GD8" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.6614378277661477</v>
+        <v>0.5773502691896257</v>
       </c>
       <c r="GG8" t="n">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="EB9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>1</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="EM9" t="n">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.6285393610547089</v>
       </c>
       <c r="EW9" t="n">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="FA9" t="n">
         <v>3</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="FE9" t="n">
         <v>0</v>
@@ -6817,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.083333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="FY9" t="n">
         <v>0</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.9128709291752769</v>
+        <v>0.9938079899999066</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.4330127018922193</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GD9" t="n">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.6400954789890506</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GG9" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="GL9" t="n">
-        <v>0.372677996249965</v>
+        <v>0.415739709641549</v>
       </c>
       <c r="GM9" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="EB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.6030226891555273</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="EW11" t="n">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="EZ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FA11" t="n">
         <v>4</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="FC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
         <v>10</v>
@@ -8175,19 +8175,19 @@
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>2.181818181818182</v>
+        <v>2.3</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="FS11" t="n">
         <v>0</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="FY11" t="n">
         <v>0</v>
@@ -8217,19 +8217,19 @@
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>1.849726359034164</v>
+        <v>1.9</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.4810456929208347</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="GD11" t="n">
         <v>0</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.2874797872880344</v>
+        <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.2874797872880345</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
         <v>0</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="GL11" t="n">
-        <v>0.385694607919935</v>
+        <v>0.4</v>
       </c>
       <c r="GM11" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="EB12" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="EC12" t="n">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="EM12" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.3726779962499649</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>0</v>
       </c>
       <c r="EZ12" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="FA12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FB12" t="n">
         <v>0</v>
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="FD12" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="FE12" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="FK12" t="n">
         <v>0</v>
@@ -8854,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="FS12" t="n">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="FY12" t="n">
         <v>0</v>
@@ -8896,10 +8896,10 @@
         <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.7556372504853025</v>
+        <v>0.5</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.3142696805273544</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.2290614236454256</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="GL12" t="n">
-        <v>0.415739709641549</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GM12" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="EB13" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>1.565217391304348</v>
+        <v>1</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.8249419983047945</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="FA13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="FK13" t="n">
         <v>0</v>
@@ -9533,10 +9533,10 @@
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>1.08695652173913</v>
+        <v>0.5</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.3478260869565217</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="FS13" t="n">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="FY13" t="n">
         <v>0</v>
@@ -9575,10 +9575,10 @@
         <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>1.138765291626852</v>
+        <v>0.5</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.560178205509788</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.2039311199923231</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
         <v>0</v>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="GL13" t="n">
-        <v>0.4880422678400793</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GM13" t="n">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="EB14" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="FK14" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>2.219512195121951</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
         <v>0</v>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.4139161645970034</v>
+        <v>0</v>
       </c>
       <c r="GC14" t="n">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="EZ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA17" t="n">
         <v>0</v>
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FO17" t="n">
         <v>0</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="FS17" t="n">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GC17" t="n">
         <v>0</v>
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="EB18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="EC18" t="n">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="EM18" t="n">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="EV18" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="EW18" t="n">
         <v>0</v>
@@ -12886,10 +12886,10 @@
         <v>0</v>
       </c>
       <c r="EZ18" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="FA18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FB18" t="n">
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="FD18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="FE18" t="n">
         <v>0</v>
@@ -12916,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="FJ18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FK18" t="n">
         <v>0</v>
@@ -12928,10 +12928,10 @@
         <v>0</v>
       </c>
       <c r="FN18" t="n">
-        <v>1.4375</v>
+        <v>1.75</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="FP18" t="n">
         <v>0</v>
@@ -12940,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="FS18" t="n">
         <v>0</v>
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="FX18" t="n">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
         <v>0</v>
@@ -12970,10 +12970,10 @@
         <v>0</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.9333240326917549</v>
+        <v>1.479019945774904</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="GD18" t="n">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="GF18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GG18" t="n">
         <v>0</v>
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="GL18" t="n">
-        <v>0.4960783708246108</v>
+        <v>0</v>
       </c>
       <c r="GM18" t="n">
         <v>0</v>
@@ -13484,16 +13484,16 @@
         <v>0</v>
       </c>
       <c r="DY19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ19" t="n">
         <v>0</v>
       </c>
       <c r="EA19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EB19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EC19" t="n">
         <v>0</v>
@@ -13514,16 +13514,16 @@
         <v>0</v>
       </c>
       <c r="EI19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="EJ19" t="n">
         <v>0</v>
       </c>
       <c r="EK19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="EL19" t="n">
-        <v>0.4</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="EM19" t="n">
         <v>0</v>
@@ -13544,16 +13544,16 @@
         <v>0</v>
       </c>
       <c r="ES19" t="n">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="ET19" t="n">
         <v>0</v>
       </c>
       <c r="EU19" t="n">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="EV19" t="n">
-        <v>0.6633249580710801</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="EW19" t="n">
         <v>0</v>
@@ -13565,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="EZ19" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="FA19" t="n">
         <v>0</v>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="FD19" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="FE19" t="n">
         <v>0</v>
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="FN19" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="FO19" t="n">
         <v>0</v>
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="FR19" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="FS19" t="n">
         <v>0</v>
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="FX19" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="FY19" t="n">
         <v>0</v>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="GB19" t="n">
-        <v>2</v>
+        <v>2.494438257849294</v>
       </c>
       <c r="GC19" t="n">
         <v>0</v>
@@ -13661,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="GF19" t="n">
-        <v>2.280350850198276</v>
+        <v>2.748737083745107</v>
       </c>
       <c r="GG19" t="n">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="GL19" t="n">
-        <v>0.4582575694955839</v>
+        <v>0.5</v>
       </c>
       <c r="GM19" t="n">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="EB20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EC20" t="n">
         <v>0</v>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="EL20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="EM20" t="n">
         <v>0</v>
@@ -14232,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="EV20" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.5</v>
       </c>
       <c r="EW20" t="n">
         <v>0</v>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="EZ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA20" t="n">
         <v>0</v>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="FN20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="FO20" t="n">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="FR20" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="FS20" t="n">
         <v>0</v>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="GB20" t="n">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="GC20" t="n">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="GF20" t="n">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="GG20" t="n">
         <v>0</v>
@@ -16281,20 +16281,20 @@
         <v>0</v>
       </c>
       <c r="EZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD23" t="n">
         <v>1</v>
       </c>
-      <c r="FA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD23" t="n">
-        <v>2</v>
-      </c>
       <c r="FE23" t="n">
         <v>0</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="FN23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FO23" t="n">
         <v>0</v>
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="GB23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GC23" t="n">
         <v>0</v>
@@ -17567,79 +17567,79 @@
         <v>0</v>
       </c>
       <c r="EB25" t="n">
+        <v>8</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>0.4948716593053935</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ25" t="n">
         <v>11</v>
-      </c>
-      <c r="EC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL25" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="EM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV25" t="n">
-        <v>0.4778846120374095</v>
-      </c>
-      <c r="EW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ25" t="n">
-        <v>17</v>
       </c>
       <c r="FA25" t="n">
         <v>1</v>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="FD25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="FE25" t="n">
         <v>0</v>
@@ -17681,10 +17681,10 @@
         <v>0</v>
       </c>
       <c r="FN25" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="FO25" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="FP25" t="n">
         <v>0</v>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="FR25" t="n">
-        <v>1.117647058823529</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="FS25" t="n">
         <v>0</v>
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="FX25" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="FY25" t="n">
         <v>0</v>
@@ -17723,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="GB25" t="n">
-        <v>0.8401680504168059</v>
+        <v>0.7726181304565692</v>
       </c>
       <c r="GC25" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2575393768188564</v>
       </c>
       <c r="GD25" t="n">
         <v>0</v>
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="GF25" t="n">
-        <v>0.5823232315653921</v>
+        <v>0.6388765649999398</v>
       </c>
       <c r="GG25" t="n">
         <v>0</v>
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="GL25" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2575393768188564</v>
       </c>
       <c r="GM25" t="n">
         <v>0</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="EB27" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="EC27" t="n">
         <v>0</v>
@@ -18955,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="EL27" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="EM27" t="n">
         <v>0</v>
@@ -18985,7 +18985,7 @@
         <v>0</v>
       </c>
       <c r="EV27" t="n">
-        <v>0.9433981132056604</v>
+        <v>0</v>
       </c>
       <c r="EW27" t="n">
         <v>0</v>
@@ -18997,10 +18997,10 @@
         <v>0</v>
       </c>
       <c r="EZ27" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="FA27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FB27" t="n">
         <v>0</v>
@@ -19009,7 +19009,7 @@
         <v>0</v>
       </c>
       <c r="FD27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="FE27" t="n">
         <v>0</v>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="FJ27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FK27" t="n">
         <v>0</v>
@@ -19039,10 +19039,10 @@
         <v>0</v>
       </c>
       <c r="FN27" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="FO27" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="FP27" t="n">
         <v>0</v>
@@ -19051,7 +19051,7 @@
         <v>0</v>
       </c>
       <c r="FR27" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="FS27" t="n">
         <v>0</v>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="FX27" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="FY27" t="n">
         <v>0</v>
@@ -19081,10 +19081,10 @@
         <v>0</v>
       </c>
       <c r="GB27" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="GC27" t="n">
-        <v>0.4582575694955839</v>
+        <v>0</v>
       </c>
       <c r="GD27" t="n">
         <v>0</v>
@@ -19093,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="GF27" t="n">
-        <v>0.5385164807134505</v>
+        <v>0</v>
       </c>
       <c r="GG27" t="n">
         <v>0</v>
@@ -19111,7 +19111,7 @@
         <v>0</v>
       </c>
       <c r="GL27" t="n">
-        <v>0.4582575694955839</v>
+        <v>0</v>
       </c>
       <c r="GM27" t="n">
         <v>0</v>
@@ -19346,7 +19346,7 @@
         <v>10101.42324130615</v>
       </c>
       <c r="AT28" t="n">
-        <v>5394.104018277735</v>
+        <v>5394.104018277734</v>
       </c>
       <c r="AU28" t="n">
         <v>8019.658112413521</v>
@@ -19586,7 +19586,7 @@
         <v>0.3142696805273545</v>
       </c>
       <c r="DV28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW28" t="n">
         <v>0</v>
@@ -19595,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="DY28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ28" t="n">
         <v>0</v>
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="EB28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="EC28" t="n">
         <v>0</v>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="EF28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="EG28" t="n">
         <v>0</v>
@@ -19625,7 +19625,7 @@
         <v>0</v>
       </c>
       <c r="EI28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="EJ28" t="n">
         <v>0</v>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="EP28" t="n">
-        <v>0.4517539514526256</v>
+        <v>0</v>
       </c>
       <c r="EQ28" t="n">
         <v>0</v>
@@ -19655,7 +19655,7 @@
         <v>0</v>
       </c>
       <c r="ES28" t="n">
-        <v>0.4517539514526256</v>
+        <v>0</v>
       </c>
       <c r="ET28" t="n">
         <v>0</v>
@@ -19676,10 +19676,10 @@
         <v>0</v>
       </c>
       <c r="EZ28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="FA28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FB28" t="n">
         <v>0</v>
@@ -19688,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="FD28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="FE28" t="n">
         <v>0</v>
@@ -19712,16 +19712,16 @@
         <v>0</v>
       </c>
       <c r="FL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN28" t="n">
         <v>1</v>
       </c>
-      <c r="FM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN28" t="n">
-        <v>1.428571428571429</v>
-      </c>
       <c r="FO28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="FP28" t="n">
         <v>0</v>
@@ -19730,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="FR28" t="n">
-        <v>1.714285714285714</v>
+        <v>2</v>
       </c>
       <c r="FS28" t="n">
         <v>0</v>
@@ -19754,16 +19754,16 @@
         <v>0</v>
       </c>
       <c r="FZ28" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="GA28" t="n">
         <v>0</v>
       </c>
       <c r="GB28" t="n">
-        <v>0.7284313590846836</v>
+        <v>0</v>
       </c>
       <c r="GC28" t="n">
-        <v>0.4948716593053935</v>
+        <v>0</v>
       </c>
       <c r="GD28" t="n">
         <v>0</v>
@@ -19772,7 +19772,7 @@
         <v>0</v>
       </c>
       <c r="GF28" t="n">
-        <v>0.4517539514526256</v>
+        <v>0</v>
       </c>
       <c r="GG28" t="n">
         <v>0</v>
@@ -19796,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="GN28" t="n">
-        <v>0.3499271061118826</v>
+        <v>0</v>
       </c>
       <c r="GO28" t="n">
         <v>0</v>
@@ -20962,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="EB30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EC30" t="n">
         <v>0</v>
@@ -20971,71 +20971,71 @@
         <v>0</v>
       </c>
       <c r="EE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="EM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER30" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES30" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ30" t="n">
         <v>1</v>
       </c>
-      <c r="EF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO30" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="EP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY30" t="n">
-        <v>0.3307189138830738</v>
-      </c>
-      <c r="EZ30" t="n">
-        <v>4</v>
-      </c>
       <c r="FA30" t="n">
         <v>0</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="FD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FE30" t="n">
         <v>0</v>
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="FN30" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="FO30" t="n">
         <v>0</v>
@@ -21088,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="FR30" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="FS30" t="n">
         <v>0</v>
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="GB30" t="n">
-        <v>0.5</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="GC30" t="n">
         <v>0</v>
@@ -21130,7 +21130,7 @@
         <v>0</v>
       </c>
       <c r="GF30" t="n">
-        <v>0.5</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="GG30" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="EB31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EC31" t="n">
         <v>0</v>
@@ -21650,71 +21650,71 @@
         <v>0</v>
       </c>
       <c r="EE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL31" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="EM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV31" t="n">
+        <v>0.3142696805273544</v>
+      </c>
+      <c r="EW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ31" t="n">
         <v>1</v>
       </c>
-      <c r="EF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL31" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="EM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO31" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="EP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV31" t="n">
-        <v>0.4714045207910317</v>
-      </c>
-      <c r="EW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY31" t="n">
-        <v>0.2763853991962833</v>
-      </c>
-      <c r="EZ31" t="n">
-        <v>4</v>
-      </c>
       <c r="FA31" t="n">
         <v>0</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="FD31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FE31" t="n">
         <v>0</v>
@@ -21755,7 +21755,7 @@
         <v>0</v>
       </c>
       <c r="FN31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="FO31" t="n">
         <v>0</v>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="FR31" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="FS31" t="n">
         <v>0</v>
@@ -21797,7 +21797,7 @@
         <v>0</v>
       </c>
       <c r="GB31" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.3142696805273544</v>
       </c>
       <c r="GC31" t="n">
         <v>0</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="GF31" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.415739709641549</v>
       </c>
       <c r="GG31" t="n">
         <v>0</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="EB32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EC32" t="n">
         <v>0</v>
@@ -22329,71 +22329,71 @@
         <v>0</v>
       </c>
       <c r="EE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL32" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="EM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV32" t="n">
+        <v>0.3142696805273544</v>
+      </c>
+      <c r="EW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ32" t="n">
         <v>1</v>
       </c>
-      <c r="EF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL32" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="EM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO32" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="EP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV32" t="n">
-        <v>0.4714045207910317</v>
-      </c>
-      <c r="EW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY32" t="n">
-        <v>0.2763853991962833</v>
-      </c>
-      <c r="EZ32" t="n">
-        <v>4</v>
-      </c>
       <c r="FA32" t="n">
         <v>0</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
       <c r="FD32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FE32" t="n">
         <v>0</v>
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="FN32" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="FO32" t="n">
         <v>0</v>
@@ -22446,7 +22446,7 @@
         <v>0</v>
       </c>
       <c r="FR32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="FS32" t="n">
         <v>0</v>
@@ -22476,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="GB32" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.3142696805273544</v>
       </c>
       <c r="GC32" t="n">
         <v>0</v>
@@ -22488,7 +22488,7 @@
         <v>0</v>
       </c>
       <c r="GF32" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.415739709641549</v>
       </c>
       <c r="GG32" t="n">
         <v>0</v>
@@ -22999,7 +22999,7 @@
         <v>0</v>
       </c>
       <c r="EB33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="EC33" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="EL33" t="n">
-        <v>1.428571428571429</v>
+        <v>1.4</v>
       </c>
       <c r="EM33" t="n">
         <v>0</v>
@@ -23059,7 +23059,7 @@
         <v>0</v>
       </c>
       <c r="EV33" t="n">
-        <v>0.4948716593053935</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="EW33" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="EZ33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="FA33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FB33" t="n">
         <v>4</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="FD33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="FE33" t="n">
         <v>0</v>
@@ -23101,7 +23101,7 @@
         <v>0</v>
       </c>
       <c r="FJ33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FK33" t="n">
         <v>0</v>
@@ -23116,10 +23116,10 @@
         <v>1</v>
       </c>
       <c r="FO33" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="FP33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="FQ33" t="n">
         <v>0</v>
@@ -23143,7 +23143,7 @@
         <v>0</v>
       </c>
       <c r="FX33" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="FY33" t="n">
         <v>0</v>
@@ -23158,10 +23158,10 @@
         <v>0</v>
       </c>
       <c r="GC33" t="n">
-        <v>0.4948716593053935</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="GD33" t="n">
-        <v>0.4948716593053935</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="GE33" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="GL33" t="n">
-        <v>0.4517539514526256</v>
+        <v>0.4</v>
       </c>
       <c r="GM33" t="n">
         <v>0</v>
@@ -23678,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="EB34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="EC34" t="n">
         <v>0</v>
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="EL34" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="EM34" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="EV34" t="n">
-        <v>0.4979295977319692</v>
+        <v>0.5</v>
       </c>
       <c r="EW34" t="n">
         <v>0</v>
@@ -23750,10 +23750,10 @@
         <v>0</v>
       </c>
       <c r="EZ34" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="FA34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FB34" t="n">
         <v>1</v>
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="FD34" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="FE34" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="FJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK34" t="n">
         <v>0</v>
@@ -23792,19 +23792,19 @@
         <v>0</v>
       </c>
       <c r="FN34" t="n">
-        <v>2.454545454545455</v>
+        <v>3</v>
       </c>
       <c r="FO34" t="n">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
       <c r="FP34" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="FQ34" t="n">
         <v>0</v>
       </c>
       <c r="FR34" t="n">
-        <v>2.545454545454545</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="FS34" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="FX34" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="FY34" t="n">
         <v>0</v>
@@ -23834,19 +23834,19 @@
         <v>0</v>
       </c>
       <c r="GB34" t="n">
-        <v>2.01646118298353</v>
+        <v>2.081665999466133</v>
       </c>
       <c r="GC34" t="n">
-        <v>0.7820295697311479</v>
+        <v>0</v>
       </c>
       <c r="GD34" t="n">
-        <v>0.2874797872880344</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="GE34" t="n">
         <v>0</v>
       </c>
       <c r="GF34" t="n">
-        <v>2.270908363053963</v>
+        <v>2.357022603955159</v>
       </c>
       <c r="GG34" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="GL34" t="n">
-        <v>0.2874797872880344</v>
+        <v>0</v>
       </c>
       <c r="GM34" t="n">
         <v>0</v>
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="EB35" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="EC35" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="EL35" t="n">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="EM35" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="EV35" t="n">
-        <v>0.4635124054434789</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="EW35" t="n">
         <v>0</v>
@@ -24429,19 +24429,19 @@
         <v>0</v>
       </c>
       <c r="EZ35" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="FA35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FB35" t="n">
         <v>1</v>
       </c>
       <c r="FC35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD35" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="FE35" t="n">
         <v>0</v>
@@ -24459,7 +24459,7 @@
         <v>0</v>
       </c>
       <c r="FJ35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FK35" t="n">
         <v>0</v>
@@ -24471,19 +24471,19 @@
         <v>0</v>
       </c>
       <c r="FN35" t="n">
-        <v>2.3125</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="FO35" t="n">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="FP35" t="n">
-        <v>0.0625</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="FQ35" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="FR35" t="n">
-        <v>2.0625</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="FS35" t="n">
         <v>0</v>
@@ -24501,7 +24501,7 @@
         <v>0</v>
       </c>
       <c r="FX35" t="n">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="FY35" t="n">
         <v>0</v>
@@ -24513,19 +24513,19 @@
         <v>0</v>
       </c>
       <c r="GB35" t="n">
-        <v>1.757795138803154</v>
+        <v>1.892154040658489</v>
       </c>
       <c r="GC35" t="n">
-        <v>0.7043392293490403</v>
+        <v>0</v>
       </c>
       <c r="GD35" t="n">
-        <v>0.2420614591379636</v>
+        <v>0.3142696805273544</v>
       </c>
       <c r="GE35" t="n">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
       <c r="GF35" t="n">
-        <v>2.014595182660775</v>
+        <v>2.216659704806667</v>
       </c>
       <c r="GG35" t="n">
         <v>0</v>
@@ -24543,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="GL35" t="n">
-        <v>0.3903123748998999</v>
+        <v>0</v>
       </c>
       <c r="GM35" t="n">
         <v>0</v>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="EL36" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="EM36" t="n">
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="EV36" t="n">
-        <v>0.4330127018922193</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="EW36" t="n">
         <v>0</v>
@@ -25108,7 +25108,7 @@
         <v>0</v>
       </c>
       <c r="EZ36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FA36" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="FJ36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FK36" t="n">
         <v>0</v>
@@ -25150,7 +25150,7 @@
         <v>0</v>
       </c>
       <c r="FN36" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="FO36" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="FR36" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="FS36" t="n">
         <v>0</v>
@@ -25180,7 +25180,7 @@
         <v>0</v>
       </c>
       <c r="FX36" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="FY36" t="n">
         <v>0</v>
@@ -25192,7 +25192,7 @@
         <v>0</v>
       </c>
       <c r="GB36" t="n">
-        <v>0.4330127018922193</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GC36" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="GF36" t="n">
-        <v>0.5</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GG36" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="GL36" t="n">
-        <v>0.5</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GM36" t="n">
         <v>0</v>
